--- a/final_project/gru_gbrbm_H_per_2 (drop 0.1)/type2/pd_results_W15_H200_B16.xlsx
+++ b/final_project/gru_gbrbm_H_per_2 (drop 0.1)/type2/pd_results_W15_H200_B16.xlsx
@@ -502,25 +502,23 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5650406504065041</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.4886363636363636</v>
-      </c>
+        <v>0.5508982035928144</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>0.7554347826086957</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2866666666666667</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5449101796407185</v>
+        <v>0.5508982035928144</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6465116279069768</v>
+        <v>0.7104247104247104</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5479041916167665</v>
+        <v>0.5</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -528,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.08007068434154804</v>
+        <v>0.1401919858072975</v>
       </c>
       <c r="J2" t="n">
-        <v>854.4905311557793</v>
+        <v>1818.916102572329</v>
       </c>
       <c r="K2" t="n">
-        <v>1110855.494892203</v>
+        <v>4439475.348574279</v>
       </c>
       <c r="L2" t="n">
-        <v>1053.971296996367</v>
+        <v>2107.006252618696</v>
       </c>
       <c r="M2" t="n">
-        <v>0.794006146799795</v>
+        <v>0.1767564391182289</v>
       </c>
     </row>
   </sheetData>
